--- a/sample.xlsx
+++ b/sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Order</t>
   </si>
@@ -40,12 +40,25 @@
   </si>
   <si>
     <t>AUD</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>16/10</t>
+  </si>
+  <si>
+    <t>18/10</t>
+  </si>
+  <si>
+    <t>09/12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -396,6 +409,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -407,6 +423,9 @@
       <c r="C2">
         <v>1.2</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -418,6 +437,9 @@
       <c r="C3">
         <v>2.2999999999999998</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -428,6 +450,9 @@
       </c>
       <c r="C4">
         <v>6.3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
